--- a/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>13,43</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,38</t>
+          <t>3,02; 22,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 20,25</t>
+          <t>4,87; 27,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,33</t>
+          <t>6,29; 21,97</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>769,98%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>789,26%</t>
+          <t>667,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>794,45%</t>
+          <t>1052,13%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>105,9; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>201,66; 3787,13</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>11,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>14,27</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,95</t>
+          <t>5,86; 18,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 19,97</t>
+          <t>10,36; 24,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 17,52</t>
+          <t>9,55; 18,71</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>486,7%</t>
+          <t>628,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>297,91%</t>
+          <t>374,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>358,5%</t>
+          <t>440,31%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>161,59; 1382,75</t>
+          <t>109,09; 2710,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,25; 620,51</t>
+          <t>131,73; 1100,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>166,22; 703,74</t>
+          <t>185,02; 1077,5</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,05</t>
+          <t>24,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>20,58</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 31,53</t>
+          <t>16,55; 33,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 23,4</t>
+          <t>11,14; 26,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,43; 25,38</t>
+          <t>15,26; 26,22</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>946,43%</t>
+          <t>1053,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>575,29%</t>
+          <t>487,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>731,18%</t>
+          <t>676,65%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>358,03; 2945,9</t>
+          <t>238,68; 4047,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>235,81; 1454,24</t>
+          <t>163,13; 1718,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>392,67; 1459,44</t>
+          <t>299,32; 1467,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>678,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>416,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>510,96%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>346,41; 1403,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>213,61; 720,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>318,01; 778,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17,11</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 20,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 21,8</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 19,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>919,34%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>443,64%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>576,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>293,89; 2214,05</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>221,46; 835,79</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>355,66; 989,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,201 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>16,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.74335940038542</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.58440483784745</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.89789934598235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 22,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 27,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 21,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.486579305597743</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.991997772291995</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.960808887915228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>667,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1052,13%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.40365980769994</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.4219779207225</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.6214088901972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>4.972330834352184</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>8.371212207039816</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,27</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,86; 18,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10,36; 24,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9,55; 18,71</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>628,06%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>374,04%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>440,31%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>11.80402341217658</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>17.76447915752525</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>14.76571555855684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>109,09; 2710,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>131,73; 1100,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>185,02; 1077,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>6.083372702913289</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>10.89323760658729</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>10.06311765539474</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>24,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>17,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>20,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.49535011045314</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.04756144637603</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.39389976900621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 33,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>11,14; 26,03</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 26,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>6.724353614772246</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>4.155643257637819</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.803790509700247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1053,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>487,74%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>676,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.127108794497915</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.439113359067197</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.977565112368957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>238,68; 4047,23</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>163,13; 1718,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>299,32; 1467,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>27.03733066875695</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>12.92365520581646</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>11.1248634785376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +765,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>24.05878876323638</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>18.65392433086441</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>21.10072845724703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>16.91114510895013</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>12.10167255412597</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>15.69481938402445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>32.90838669667569</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>27.16564817611809</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>26.82802022541035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>11.80406695373736</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>5.424548085953529</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>7.528812962166359</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>16,15</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>2.883132407776867</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.780305378973191</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>3.442406849079103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>11,48; 20,76</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 21,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>13,45; 19,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>46.02302751093544</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>18.85073704858433</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>16.2099602594226</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>919,34%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>443,64%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>576,2%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>16.18073040491044</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>17.66673102128967</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>16.95172264602004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>293,89; 2214,05</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>221,46; 835,79</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>355,66; 989,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>11.48370190805207</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>12.9948033468546</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>13.72267640907409</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>21.06280033072713</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>22.66629836505872</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>19.87823728530118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>9.991059542607653</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.706719613723677</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>6.151177940741887</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>3.017354338270003</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.361819456156709</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.735545397497007</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>23.13286374527125</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>9.20150197465469</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>10.54172366354386</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
